--- a/tests/input/bootstrap67.xlsx
+++ b/tests/input/bootstrap67.xlsx
@@ -68,6 +68,7 @@
           <c:order val="0"/>
           <c:dLbls>
             <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="1"/>
             <c:showVal val="1"/>
             <c:showCatName val="1"/>
             <c:showSerName val="1"/>
@@ -133,7 +134,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
